--- a/NLP_what_defines_a_data_scientist.xlsx
+++ b/NLP_what_defines_a_data_scientist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Documents\Data_science_stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Documents\Data_science_stuff\NLP_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EC860ED-AC84-4C90-A046-0FE0CD812848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B573FC-6D49-4A69-8777-855B829A7AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="315" windowWidth="23625" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="15" windowWidth="20835" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,15 +29,114 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Qualifications</t>
+  </si>
+  <si>
+    <t>Responsibilities</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Mid-Senior level</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>Scientific Research &amp; Development</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Linkedin</t>
+  </si>
+  <si>
+    <t>Educated to bachelor’s degree (or higher) in a numerate discipline, such as mathematics, statistics, computer science, data science, or a related field with a significant statistics bias
+Experience in programming in Python and the ability to write readable, efficient code
+Experience of C or C++ or Java, Perl, Matlab, R is also beneficial
+Experience of developing, testing of machine-learning models
+Demonstrate experience of supervised learning, unsupervised learning is desirable
+Good applied statistics skills, such as distributions, statistical testing, regression, etc.
+Solid understanding of databases &amp; SQL
+Experience in data visualization tools - experience of PowerBi or Tableau beneficial
+Clear communicator - able to concisely communicate complex issues &amp; techniques deployed to both technical and non-technical audiences in an effective manner both verbally and in writing
+Good business acumen</t>
+  </si>
+  <si>
+    <t>Derive, new valuable actionable insights from data and communicate effectively to stakeholders and decision makers
+Solve problems in fundamental scientific research using data-driven insights
+Develop proprietary algorithms, using data analytical methodologies
+Develop studies to create the necessary training data, as and when required
+Collect, organize and visualize large sets of structured and unstructured data
+Analise, learn and interpret large amounts of data to discover solutions and opportunities to improving all aspects of our products and digital ecosystem
+Establish data visualisation toolkit to enable clear communication of techniques used and insights yielded
+Work with the wider team implement these findings into future analytical research tools, and consumer products
+Participate in relevant cross R&amp;D forums related to data science and big data</t>
+  </si>
+  <si>
+    <t>Entry level</t>
+  </si>
+  <si>
+    <t>Information Technology  Analyst  Science</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Statistical modelling and skills in data analytics
+Strong attention to detail and ability to retain information
+Adept using at least one of the common analytical programming languages, eg. R, Python, C++
+BSc in Maths, Statistics, Computer Science, Engineering, or other Quantitative disciplines</t>
+  </si>
+  <si>
+    <t>Interpret data, analyse results using statistical techniques, and provide reports
+Acquire data from multiple data sources, filtering, cleaning and wrapping
+Identify, analyse, and interpret trends or patterns in complex data sets
+Work with senior colleagues to prioritise business and information needs
+Locate and define new process improvement opportunities
+Operate with Python as your primary language</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,8 +159,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,14 +491,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="7" width="90.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="90.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NLP_what_defines_a_data_scientist.xlsx
+++ b/NLP_what_defines_a_data_scientist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Documents\Data_science_stuff\NLP_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B573FC-6D49-4A69-8777-855B829A7AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AC57B9-4037-4EDA-8561-5EAE17523D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="15" windowWidth="20835" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="90" windowWidth="16080" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t>Role</t>
   </si>
@@ -53,13 +53,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Function</t>
-  </si>
-  <si>
     <t>Data Scientist</t>
-  </si>
-  <si>
-    <t>Scientific Research &amp; Development</t>
   </si>
   <si>
     <t>Southampton</t>
@@ -94,9 +88,6 @@
     <t>Entry level</t>
   </si>
   <si>
-    <t>Information Technology  Analyst  Science</t>
-  </si>
-  <si>
     <t>London</t>
   </si>
   <si>
@@ -112,6 +103,235 @@
 Work with senior colleagues to prioritise business and information needs
 Locate and define new process improvement opportunities
 Operate with Python as your primary language</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>MS or PhD degree in a quantitative field such as Computer Science, Physics, Applied Mathematics, Statistics, etc. (several years of research is a plus);
+Excellent critical-thinking, problem solving and analytical skills as well as interest and motivation in applying them to solve complex problems;
+Established experience and fluency in at least one major data science language (Python, R) and in SQL;
+Experience with application development practices and Git version control;
+Experience with statistical data analysis and/or Machine Learning techniques (classification, regression, clustering or time-series analysis problems).
+Self-starter with ability to lead own project and collaborate in a team;
+Excellent verbal/written communication skills including an ability to effectively communicate scientific concepts to both product owners and technical teams.</t>
+  </si>
+  <si>
+    <t>Carry out complex data analysis of new datasets coming from different sources, extract and prepare data for further usage;
+Develop product prototypes using machine learning and advanced statistical models;
+Collaborate with engineering and product management teams to affect changes in production systems and provide intelligence to other teams;
+Contribute to Data Science culture, share knowledge and best practices.</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>GroupM</t>
+  </si>
+  <si>
+    <t>CPS group</t>
+  </si>
+  <si>
+    <t>Applicants</t>
+  </si>
+  <si>
+    <t>PhD or Masters educated in a quantitative / STEM subject in Machine Learning, Statistics, Mathematics, Physics etc from a Russell Group / Top-Tier University
+Strong Python programming skills (Numpy, SciPy, Pytables, Pandas) – this is essential for the role
+Highly intuitive Mathematical or Statistical mindset
+Experience across a broad range of Machine Learning &amp; Statistical techniques in either industry or post-doctoral setting
+Experienced with time-series data
+SQL and other databases</t>
+  </si>
+  <si>
+    <t>Your main responsibilities will be understanding large, very complex datasets and associated algorithms. The sets of data are huge and come directly from matching engines from around the globe. You’ll be working very closely with the development and DevOps teams to productiose these algorithms on real-time streaming data.</t>
+  </si>
+  <si>
+    <t>echobox</t>
+  </si>
+  <si>
+    <t>2.1 degree in a STEM subject from a top tier university.Required Skills And Experience
+Fluent written and spoken English
+A very strong understanding of classical statistics
+A basic knowledge of different ML and AI methodologies and the desire to become an expert
+Strong background in a programming language suitable for analyses (e.g. R, Python, Java, C#, C++)
+A familiarity with Java (SE7+) and a desire to become an expert
+An ability and desire to learn new skills quickly
+Genuine passion for making the impossible possible
+Preferred Skills
+Strong knowledge or experience in one area of ML and AI.
+Experience developing software as part of a team, e.g. DVCS, open source software projects.
+Working knowledge of big data architectures, i.e. NoSQL, Hadoop etc.</t>
+  </si>
+  <si>
+    <t>You will contribute to the development of prototypes that can be turned into end user products by the core development team.
+You will assist in the customisation of the product for new customers and trial data analyses where required.
+You will stay up to date with the latest advances in ML and AI.</t>
+  </si>
+  <si>
+    <t>Haringey Council</t>
+  </si>
+  <si>
+    <t>You will help shape and define the emerging data science capability within Haringey, developing innovative analytic techniques for the Council’s data and external data. Your role will optimise insight and data correlation to inform service planning.</t>
+  </si>
+  <si>
+    <t>The successful candidate will have:
+Experience of using data analytics and machine learning tools and languages (SQL scripting and SQL server)
+Strong analytical skills to manipulate large scale and complex data sets and create insight from them
+Experience with open source programming languages Python and R
+Experience of using data visualisations tools such as PowerBI/Tableau/Qlik is highly desirable
+Knowledge of and commitment to data security and information governance
+You will have good communication and presentation skills, especially written, in order to convey complex information in easily understandable ways.</t>
+  </si>
+  <si>
+    <t>Graduate data scientist</t>
+  </si>
+  <si>
+    <t>Department for international development</t>
+  </si>
+  <si>
+    <t>Data analytics – such as statistical model selection, supervised/un-supervised/deep machine learning, network analysis, and natural language processing (NLP). Confident programming ability (R, Python or other data analysis relevant languages).
+Data Management/curation – such as the manipulation and analysis of datasets held in relational and/or non-relational databases.
+Data/Systems engineering – such as the implementation of algorithms in programming languages (like R or Python), SQL and noSQL database systems, statistical analysis languages and tooling.
+Story telling and data visualisation – including the visualisation of insights drawn from data and building of data driven products.
+Scientific research methods – analytical, independent, critical and curious analysis of data literature reviews.
+Desirable Skills
+Examples of open source projects and contributions or Github profile.
+Those with equivalent wider experience are also actively encouraged to apply.</t>
+  </si>
+  <si>
+    <t>Deliver insight from data using statistical and data science techniques, applying your skills in coding, mathematics and statistics.
+Help government understand and tackle some of the key challenges facing society on topics such as the economy, health, urban future and the UK in a global context.
+Access appropriate and analyse data sources required for the project.
+Support the creation of innovative data products and services and be able to tell a compelling evidence based narrative of the project.
+ResponsibilitiesWe are looking for candidates with existing knowledge and experience of some or all of the following data science techniques:</t>
+  </si>
+  <si>
+    <t>Depop</t>
+  </si>
+  <si>
+    <t>Requirements
+Masters degree or Ph.D. in computer science, maths, statistics, economics or related disciplines
+Solid experience in Data Science/Machine Learning
+Proven ability to design machine learning solutions to solve business problems using best practices (data cleansing, model development)
+Ability to contribute ideas to feed the product roadmap
+Experience writing production-grade code
+Knowledge of ways to optimise algorithms and their limitations
+Ability to communicate complex problems to technical and non-technical audiences
+Ability to research machine learning techniques and develop prototype
+Passion for learning new skills and staying up-to-date with ML algorithms
+Be a team player in our collaborative and cross-functional environment
+Skills
+Strong knowledge of Python, in particular packages like pandas, scikit-learn, NumPy, SciPy etc.
+Proficiency in writing SQL queries
+Experience with Spark (PySpark or scala spark)</t>
+  </si>
+  <si>
+    <t>Translate simple business problems to machine learning solutions
+Research and design machine learning algorithms to create smart capabilities such as personalisation, image recognition tasks, NLP tasks and more.
+Deploy machine learning algorithm to production using existing framework
+Develop prototype, before scaling the solution to work with our 15+ million users and deploy it to production.
+Optimise and maintain existing solutions to improve performance metrics and increase business impact
+Elicit requirements from the relevant stakeholders across the business
+Participate in the team activities (agile ceremonies, journal club, engineering whiteboard sessions etc)</t>
+  </si>
+  <si>
+    <t>Chronomics, Ltd</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+We are looking for a knowledgeable and skilled researcher/engineer in machine learning who wants to make a difference and help bring about a proactive healthcare revolution. As a fast paced startup, we need someone with a can-do attitude who is happy to jump in and get their hands dirty. This might include anything from deriving novel health insights from our unique dataset, developing new modelling/algorithmic strategies and training novel models that will be included as part of our product, always with the end user in mind. This person will work at the interface of our front end and science teams, developing sophisticated biomarker and prediction algorithms that will not only have huge value for the research community but will also have lasting health benefits for people around the world.Working in a startup with big ambitions, you will get the chance to access a unique-in-the-world biological dataset (longitudinal ‘omics’), collaborate with top academic experts, get your work published, have a say in how we drive the company forward and learn a ton along the way. An interest in understanding biology and disease is a must. Essential skills:</t>
+  </si>
+  <si>
+    <t>BSc / MSc degree in a quantitative field (mathematics, statistics, physics, computer science, bioinformatics, …). Good understanding of statistical / machine learning methods. Programming skills in Python/R. Hands-on experience in a research or commercial data science environment (4+ years). Ability to pro-actively and independently develop new data-based insights and conclusions that are useful for the user. Passion to develop a great product as part of a cross-functional and agile team. Strong critical thinking, problem-solving, creativity and communication skills. Great attention to detail. Bias towards fast delivery while having high quality standards. Resilience and ability to cope with multi-tasking.</t>
+  </si>
+  <si>
+    <t>Transition Partners</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Commercial experience of working as a Data Scientist in a professional environment
+Experience of utilising languages such as Python or R
+Exposure to tools such as Pandas, Notebooks, SAS Viya or PyTorch
+Good understanding of Machine learning techniques
+Experience of working across all stages of data science lifecycle</t>
+  </si>
+  <si>
+    <t>You will take responsibility of producing quality ML models, exploring data sets, providing insights into data architecture solutions and more!
+Are you excited by emerging and modern technologies and have a passion for AI &amp; machine learning?
+Do you have the passion and forward thinking mindset?
+Do you love innovation, all things data and really being able to make an impact?</t>
+  </si>
+  <si>
+    <t>The Floow</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>You will have a proven track record of ability to quickly adapt to and exploit new and cutting edge technology/ techniques
+Degree or above qualification in Statistics, Applied Mathematics, Computer Science, or a related subject
+Broad knowledge of programming, and scripting
+Experience using Python, in particular the NumPy, Pandas, scikit-learn and Matplotlib libraries
+Strong interpersonal and communication skills
+Prior experience of developing and delivering commercially viable ‘big-data’ analytic solutions
+Experience with working in connection with collaborative projects/ dynamic teams
+Experience with using Data Mining algorithms and statistical tools
+Experience with Version Control (Git) Strong past experience on research projects and deliverables
+Past experience on collaborative projects with drivers teams
+Knowledge of Motor Insurance
+Experience of client interaction (financial sector)
+Experience of productionising data science algorithms in Java, using continuous integration
+Proven track record of involvement in complex applications
+Experience with UNIX / LINUX command line and other programming languages (e.g. R)
+Experience in presenting and visualising the output of big data analytics
+Apply for this role
+If you think you may have the right skills, get in touch with a copy of your CV today!</t>
+  </si>
+  <si>
+    <t>Use good domain knowledge of Data Driven Science to solve problems and support the regular daily activities of the Data Science function
+Display competency with the relevant technologies and tools and the Company specific technologies, tools and processes to deliver quality solutions and contribute to the success of the team and projects
+Complete tasks reasonably autonomously, using a moderate level of support from colleagues and leaders as well as seeking external influences to grow awareness of technologies, to ensure you continue to meet best practice standards
+Conduct fully supported interactions with clients and colleagues to update, feedback and deliver news regarding pieces of work you are involved in
+Ensure competent verbal and non-verbal exchanges with colleagues and clients, maintaining positive and professional lines of communication
+Proactively identify, suggest and assist in the delivery of improvements, to ensure the business and team are constantly moving forward and raising the bar
+Contributing to the technical quality and timely delivery of projects and products; managing the quality of your own work, in order to ensure the best product is delivered within the specified time frame
+Individually analyse and break down tasks and information, seeking guidance and support from peers when required, to ensure you’re working with a fair level of autonomy</t>
+  </si>
+  <si>
+    <t>Hays</t>
+  </si>
+  <si>
+    <t>Kent</t>
+  </si>
+  <si>
+    <t>Some skills required are: you will be an expert in applied maths, statistics and scientific practices, you will be an expert in data science innovation. Is a recognised specialist and is confident in applying skill in various fields including user needs, generation of ideas, methods, tools and leading or guiding others in best practice use</t>
+  </si>
+  <si>
+    <t>you will play a key role in ensuring that the client understands the data patterns and that the processes being developed for the underlying indices (geography, classification, address, demographic and business) are done so using innovative and smart ways.
+You will be leading the work on re-inventing how the data is currently used and develop data models to support various hypotheses.
+The role will involve you understanding the data and processes for each index, building models to test innovative solutions.Work alongside and learn from other data architects, developers and data engineers to come up with most appropriate tools to address current issues with the development of each index</t>
+  </si>
+  <si>
+    <t>Junior Data Scientist</t>
+  </si>
+  <si>
+    <t>Touchscreen talent limited</t>
+  </si>
+  <si>
+    <t>Warwickshire</t>
+  </si>
+  <si>
+    <t>Working for an exciting and vibrant Digital Solutions Provider, a new and rewarding role is now available for aJunior Data Scientist. You will be responsible for modelling complex data problems, discovering insights and identifying opportunities through the use of statistical, algorithmic, mining and visualization techniques. As a Data Scientist, you will work closely with clients, data stewards, project/program managers.</t>
+  </si>
+  <si>
+    <t>To be considered for this role, you will understand statistical and predictive modelling concepts, machine-learning approaches, clustering and classification techniques, and recommendation and optimization algorithms.
+You will have a passion for analysing large, complex, multi-dimensional datasets with a variety of tools. You have an awareness and some experience of statistical analysis environments such as R, MATLAB, SPSS or SAS. You have experience with BI tools such as Tableau and MicroStrategy. You’re as comfortable with relational databases as you are with data mining frameworks. You are also familiar with SQL, Python, Java and C/C++.
+This is an excellent opportunity to work for with a dynamic and forward thinking organisation.</t>
   </si>
 </sst>
 </file>
@@ -159,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -176,6 +396,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,85 +714,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="7" width="90.5703125" customWidth="1"/>
+    <col min="1" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="9" width="90.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="180.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>44500</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>43</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>197</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>44607</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="90.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>191</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>50000</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>54</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="165.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1">
+        <v>24000</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/NLP_what_defines_a_data_scientist.xlsx
+++ b/NLP_what_defines_a_data_scientist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Documents\Data_science_stuff\NLP_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AC57B9-4037-4EDA-8561-5EAE17523D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACE909D-204C-4190-8C55-2ED2B5464990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="90" windowWidth="16080" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
   <si>
     <t>Role</t>
   </si>
@@ -332,6 +332,47 @@
     <t>To be considered for this role, you will understand statistical and predictive modelling concepts, machine-learning approaches, clustering and classification techniques, and recommendation and optimization algorithms.
 You will have a passion for analysing large, complex, multi-dimensional datasets with a variety of tools. You have an awareness and some experience of statistical analysis environments such as R, MATLAB, SPSS or SAS. You have experience with BI tools such as Tableau and MicroStrategy. You’re as comfortable with relational databases as you are with data mining frameworks. You are also familiar with SQL, Python, Java and C/C++.
 This is an excellent opportunity to work for with a dynamic and forward thinking organisation.</t>
+  </si>
+  <si>
+    <t>Data Scientists are split into two paths, depending on your experience and career aspirations: Commercial where you will be working with clients to tailor the predictive machine to their specific needs; and Research where you will work purely in-house to develop new models.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Strong academic record – PhD or Master’s in ML/Maths/Stats etc. – from a leading university
+Creative mind and ability to come up with new ideas to solve complex problems
+Experience publishing journals is also highly sought-after
+Excellent written and verbal communication skills</t>
+  </si>
+  <si>
+    <t>Oxford Knight Limited</t>
+  </si>
+  <si>
+    <t>Davies group</t>
+  </si>
+  <si>
+    <t>You will recommend statistical/machine learning tools and technologies to prototype new concepts.
+You must be able to carry out statistical analysis including data modelling &amp; hypothesis testing.
+You must be able to retrieve and collect open and closed data sources, including data processing, cleansing and verification.
+Where applicable, you will work with developers to integrate specialist third party applications.
+You will be the subject matter expert for machine learning techniques, aiding the development of solutions for real world problems.
+You will be a mentor and coach to less experienced colleagues.
+You will work closely with the Head of Infrastructure and Programmes to ensure IT objectives are achieved</t>
+  </si>
+  <si>
+    <t>We work to an Agile Scrum framework and are currently undergoing a transition to DevOps so it would be great if you have experience in these areas.
+You will be an expert in machine learning &amp; data classification and will also have demonstrable experience in Python. Any legal/case management experience would also be a bonus.
+Teamwork – You will contribute actively to an environment in which colleagues work cooperatively with each other.
+Agile – Experience of Agile Scrum methodology is an advantage.
+Concern for Excellence – You must understand the Principles of Excellence at Keoghs and how these are applied to the way Keoghs runs its business.
+You must understand and adhere to Keoghs Shared Values.
+You will be self-motivated with a strong work ethic who can work without supervision.
+You must show a highly committed attitude.
+You must have good analytical skills, methodical, accurate and show great attention to detail.
+You will be able to communicate in clear and concise manner both written and verbal.
+You must be flexible/adaptable to change.</t>
+  </si>
+  <si>
+    <t>Manchester</t>
   </si>
 </sst>
 </file>
@@ -714,10 +755,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,6 +1137,58 @@
         <v>57</v>
       </c>
     </row>
+    <row r="15" spans="1:9" ht="120.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>68</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="240.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>43</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
